--- a/public/xlsx/cumpleanios.xlsx
+++ b/public/xlsx/cumpleanios.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -436,9 +436,54 @@
         <v>21-04-1987</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" t="str">
+        <v>NIMA</v>
+      </c>
+      <c r="C3" t="str">
+        <v>PANTA VDA DE RACCHUM</v>
+      </c>
+      <c r="D3" t="str">
+        <v>LUZ MARIA</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="str">
+        <v>RACCHUMI</v>
+      </c>
+      <c r="C4" t="str">
+        <v>NIMA</v>
+      </c>
+      <c r="D4" t="str">
+        <v>LUIS ANGEL</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="str">
+        <v>LEIVA</v>
+      </c>
+      <c r="C5" t="str">
+        <v>CAJO</v>
+      </c>
+      <c r="D5" t="str">
+        <v>DAVID ALEXANDER</v>
+      </c>
+      <c r="E5" t="str">
+        <v>1987-02-27</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E5"/>
   </ignoredErrors>
 </worksheet>
 </file>